--- a/SSIS/SSIS_Book/Cap2/SQLtoEXCEL/SQLtoEXCEL/ExcelDestination.xlsx
+++ b/SSIS/SSIS_Book/Cap2/SQLtoEXCEL/SQLtoEXCEL/ExcelDestination.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aplicatii VS\SSIS\SQL Server Integration Services (SSIS) –Step by Step Tutorial\Cap2\SQLtoEXCEL\SQLtoEXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aplicatii VS\SQL\SQL\SSIS\SSIS_Book\Cap2\SQLtoEXCEL\SQLtoEXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD5FF8E-9558-4346-B1B0-E0CA6BE07EA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC21693C-1AC5-43C7-8700-37C3A1942D4E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -336,16 +340,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3">
   <dimension ref="A1:N831"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row spans="1:14" x14ac:dyDescent="0.3" outlineLevel="0" r="1">
+    <row spans="1:14" x14ac:dyDescent="0.25" outlineLevel="0" r="1">
       <c r="A1">
         <v>1</v>
       </c>
